--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Činnost</t>
   </si>
@@ -60,16 +60,27 @@
   </si>
   <si>
     <t>Přesunuté</t>
+  </si>
+  <si>
+    <t>Tvorba HTML souboru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -153,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -162,21 +173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -203,19 +199,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -229,45 +212,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -327,12 +271,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -345,6 +334,21 @@
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
@@ -360,6 +364,21 @@
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -372,150 +391,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -524,71 +427,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -872,7 +766,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,193 +776,211 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:16" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="21">
         <v>44452</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="21">
         <v>44459</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="21">
         <v>44466</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="21">
         <v>44473</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="21">
         <v>44480</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="21">
         <v>44487</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="21">
         <v>44494</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="21">
         <v>44501</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="21">
         <v>44508</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="21">
         <v>44515</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="21">
         <v>44522</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="21">
         <v>44529</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="22">
         <v>44536</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="21"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="14"/>
+    </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\bitcoin-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -427,28 +427,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -456,12 +438,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +459,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -766,7 +767,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,210 +778,210 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="13">
         <v>44452</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="13">
         <v>44459</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="13">
         <v>44466</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="13">
         <v>44473</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="13">
         <v>44480</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="13">
         <v>44487</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="13">
         <v>44494</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="13">
         <v>44501</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="13">
         <v>44508</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="13">
         <v>44515</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="13">
         <v>44522</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="13">
         <v>44529</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="14">
         <v>44536</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="11"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="11"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="11"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="24"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="11"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="11"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Činnost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tvorba harmonogramu</t>
   </si>
@@ -459,6 +456,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,7 +481,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -767,7 +764,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,11 +775,9 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="13">
         <v>44452</v>
@@ -826,10 +821,10 @@
     </row>
     <row r="4" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -845,7 +840,7 @@
     </row>
     <row r="5" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -864,7 +859,7 @@
     </row>
     <row r="6" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -883,7 +878,7 @@
     </row>
     <row r="7" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -902,7 +897,7 @@
     </row>
     <row r="8" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -921,7 +916,7 @@
     </row>
     <row r="9" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -940,7 +935,7 @@
     </row>
     <row r="10" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -958,30 +953,30 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -171,6 +171,196 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -179,245 +369,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -426,59 +409,59 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +747,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,208 +758,208 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>44452</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>44459</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>44466</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>44473</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>44480</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>44487</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>44494</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>44501</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <v>44508</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <v>44515</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <v>44522</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>44529</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="12">
         <v>44536</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="16"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
